--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="1"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <t>文本</t>
   </si>
   <si>
-    <t>Key</t>
+    <t>IDs</t>
   </si>
   <si>
     <t>Value</t>
@@ -83,10 +83,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -111,8 +111,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,84 +182,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -228,7 +205,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,169 +268,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,50 +447,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -524,6 +480,48 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -541,9 +539,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,10 +555,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,130 +570,130 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1060,8 +1060,8 @@
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1121,8 +1121,8 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,21 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71BD0B7-0539-4B5C-9DA2-F85BC57F0FE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3DED78-C632-4E93-9552-18267B5AD32F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Item" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>索引</t>
   </si>
@@ -37,45 +36,6 @@
   </si>
   <si>
     <t>String</t>
-  </si>
-  <si>
-    <t>第三方的</t>
-  </si>
-  <si>
-    <t>撒旦发射点</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>IntLists</t>
-  </si>
-  <si>
-    <t>StringLists</t>
-  </si>
-  <si>
-    <t>Int</t>
-  </si>
-  <si>
-    <t>ArrayInt</t>
-  </si>
-  <si>
-    <t>ArrayString</t>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
-  </si>
-  <si>
-    <t>斯多1,2,3,4士大夫</t>
-  </si>
-  <si>
-    <t>2,4,5,7</t>
-  </si>
-  <si>
-    <t>2,4,地方5,7呃呃</t>
   </si>
   <si>
     <t>Percent</t>
@@ -101,6 +61,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -482,7 +443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -517,10 +478,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -531,100 +492,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="4" width="40.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3DED78-C632-4E93-9552-18267B5AD32F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF9ACAA-1397-422D-B6A4-4564B5281D17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30780" yWindow="2970" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>索引</t>
   </si>
@@ -43,6 +43,54 @@
   </si>
   <si>
     <t>{0}%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlusValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造时间:{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HasBuild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已建造:{0}/{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildOpenCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}到达{1}级后解锁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,15 +489,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="34.25" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="139.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -482,6 +531,54 @@
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -495,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF9ACAA-1397-422D-B6A4-4564B5281D17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAAA48E-93EE-4AB0-ABCE-C1584A6ABAC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30780" yWindow="2970" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16290" yWindow="1335" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>索引</t>
   </si>
@@ -91,6 +91,46 @@
   </si>
   <si>
     <t>{0}到达{1}级后解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpEnter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpUpgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpCancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameLv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}Lv.{1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -579,6 +619,46 @@
       </c>
       <c r="B10" s="4" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,20 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAAA48E-93EE-4AB0-ABCE-C1584A6ABAC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D03518-0501-4788-B33C-3B3A63E7BFC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16290" yWindow="1335" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9060" yWindow="6165" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Language" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>索引</t>
   </si>
@@ -131,6 +140,38 @@
   </si>
   <si>
     <t>{0}Lv.{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpotCordinate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HourAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+{0}/小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}/{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProgressFull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}&lt;color=#ff0000&gt;/{1}&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;&lt;u&gt;({0},{1})&lt;/u&gt;&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,13 +197,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -209,7 +243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -223,6 +257,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -529,23 +578,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="139.625" customWidth="1"/>
+    <col min="2" max="2" width="139.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -553,7 +602,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -561,7 +610,7 @@
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -569,7 +618,7 @@
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -577,7 +626,7 @@
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -585,7 +634,7 @@
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -593,7 +642,7 @@
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -601,7 +650,7 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -609,7 +658,7 @@
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -617,7 +666,7 @@
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -625,7 +674,7 @@
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -633,7 +682,7 @@
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -641,7 +690,7 @@
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -649,7 +698,7 @@
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -657,8 +706,40 @@
       <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="8" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -666,19 +747,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D03518-0501-4788-B33C-3B3A63E7BFC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9541CC-AA6C-4FDA-8A71-3CB086618143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9060" yWindow="6165" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8430" yWindow="3255" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
   <si>
     <t>索引</t>
   </si>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PlusValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>x{0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,6 +168,182 @@
   </si>
   <si>
     <t>&lt;color=#00ff00&gt;&lt;u&gt;({0},{1})&lt;/u&gt;&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfirmTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfirmSure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfirmCancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CancelUpgradeNotice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否要取消升级？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CountValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DayTax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}税收+{1}/天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoreLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储上限+{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HourTax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}+{1}/小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TroopAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄兵力上限+{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReserverLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预备兵上限+{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TroopCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可部署{0}部队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecruitSecs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributeAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MarchSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>募兵速度+{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeployCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可调动{0}只部队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄{0}属性+{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄行军速度+{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御伤害+{0},范围+{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Archer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infantry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}部队的英雄四维属性+{1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -624,122 +796,298 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>35</v>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9541CC-AA6C-4FDA-8A71-3CB086618143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A011E32-84B4-46C9-9CFC-769EE80492F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8430" yWindow="3255" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
   <si>
     <t>索引</t>
   </si>
@@ -344,6 +344,22 @@
   </si>
   <si>
     <t>{0}部队的英雄四维属性+{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleLevelExp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleLevelExpFull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv.{0}({1}/{2})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv.{0}(满级)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -750,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1090,6 +1106,22 @@
         <v>78</v>
       </c>
     </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A011E32-84B4-46C9-9CFC-769EE80492F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE795F6-A47D-4735-8339-F32BC9BCFE3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
+    <sheet name="LanError" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>索引</t>
   </si>
@@ -360,6 +361,14 @@
   </si>
   <si>
     <t>Lv.{0}(满级)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取{0}x{1}会超过资源上限！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ValueOutOfRange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -768,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1127,4 +1136,56 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC9B950-7023-46FA-B2D0-AF185AE30305}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="32.25" customWidth="1"/>
+    <col min="2" max="2" width="42.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE795F6-A47D-4735-8339-F32BC9BCFE3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479C2BFB-037B-4CEA-A99B-C23D04375E2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
   <si>
     <t>索引</t>
   </si>
@@ -369,6 +369,56 @@
   </si>
   <si>
     <t>ValueOutOfRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecruitCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已有{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroRecruit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒馆刷新英雄上限:{0}个
+提升高稀有的的英雄出现概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐骑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Horse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声望高于{0}或
+好感度大于{1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +490,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -470,6 +520,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1131,6 +1184,54 @@
         <v>83</v>
       </c>
     </row>
+    <row r="44" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A44" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A46" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1142,7 +1243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC9B950-7023-46FA-B2D0-AF185AE30305}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479C2BFB-037B-4CEA-A99B-C23D04375E2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D64C55C-69CC-4154-805C-8E49A1FC4E54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
   <si>
     <t>索引</t>
   </si>
@@ -419,6 +419,14 @@
   <si>
     <t>声望高于{0}或
 好感度大于{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CancelBuildNotice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否要取消建造？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -828,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1230,6 +1238,14 @@
       </c>
       <c r="B49" s="8" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D64C55C-69CC-4154-805C-8E49A1FC4E54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8602F4-078A-413F-B198-C24139AC7BC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="104">
   <si>
     <t>索引</t>
   </si>
@@ -427,6 +427,22 @@
   </si>
   <si>
     <t>是否要取消建造？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城池大小:{0}x{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv.{0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -836,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1246,6 +1262,22 @@
       </c>
       <c r="B50" s="8" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8602F4-078A-413F-B198-C24139AC7BC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6723F625-3A66-4D18-833D-4E72EB2252FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
   <si>
     <t>索引</t>
   </si>
@@ -443,6 +443,14 @@
   </si>
   <si>
     <t>Lv.{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostNotEnought</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需{0}资源不足！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -854,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1289,10 +1297,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC9B950-7023-46FA-B2D0-AF185AE30305}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1333,6 +1341,14 @@
         <v>84</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6723F625-3A66-4D18-833D-4E72EB2252FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B639F3FA-D3FA-4A16-8C0F-4847FBCE0F07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
   <si>
     <t>索引</t>
   </si>
@@ -451,6 +451,14 @@
   </si>
   <si>
     <t>所需{0}资源不足！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}km</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -860,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:B53"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1288,6 +1296,14 @@
         <v>103</v>
       </c>
     </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1299,7 +1315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC9B950-7023-46FA-B2D0-AF185AE30305}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B639F3FA-D3FA-4A16-8C0F-4847FBCE0F07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9C972E-71E7-4246-815A-53C413E96ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
   <si>
     <t>索引</t>
   </si>
@@ -224,10 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{0}+{1}/小时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TroopAdd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,14 +240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TroopCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可部署{0}部队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RecruitSecs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,10 +252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MarchSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>募兵速度+{0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,10 +269,6 @@
   </si>
   <si>
     <t>英雄{0}属性+{1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄行军速度+{0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -459,6 +439,44 @@
   </si>
   <si>
     <t>{0}km</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院伤员容量:{0}
+治疗所需时间:{1}秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecruitVolume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练容量:{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造队列上限+{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResearchSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学研究速度提升:{0}%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}+{1}/小时
+税收存储容量:{2}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -868,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B46" activeCellId="1" sqref="B26 B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1080,228 +1098,244 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>49</v>
+      <c r="B26" s="10" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>65</v>
+        <v>103</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="8" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="4" t="s">
         <v>107</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1351,18 +1385,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9C972E-71E7-4246-815A-53C413E96ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CF842E-AB31-4F73-B988-7D6572AF2FB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
   <si>
     <t>索引</t>
   </si>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{0}到达{1}级后解锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OpEnter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,78 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DayTax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}税收+{1}/天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoreLimit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储上限+{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HourTax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TroopAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄兵力上限+{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReserverLimit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预备兵上限+{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecruitSecs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElementAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttributeAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>募兵速度+{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeployCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可调动{0}只部队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄{0}属性+{1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御伤害+{0},范围+{1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,10 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{0}部队的英雄四维属性+{1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RoleLevelExp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -361,15 +281,6 @@
   </si>
   <si>
     <t>OwnCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HeroRecruit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>酒馆刷新英雄上限:{0}个
-提升高稀有的的英雄出现概率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -414,10 +325,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>城池大小:{0}x{1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -430,10 +337,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所需{0}资源不足！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Distance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -442,41 +345,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医院伤员容量:{0}
-治疗所需时间:{1}秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecruitVolume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>训练容量:{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Worker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建造队列上限+{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResearchSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科学研究速度提升:{0}%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}+{1}/小时
-税收存储容量:{2}</t>
+    <t>LimitReach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此类建筑数量已达上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}升至{1}级后解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildNextCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}升至{1}级后可建造更多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}x{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需&lt;color=#ff0000&gt;{0}&lt;/color&gt;不足！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -886,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B46" activeCellId="1" sqref="B26 B46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -932,7 +833,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>7</v>
@@ -975,135 +876,135 @@
         <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -1111,231 +1012,135 @@
         <v>49</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>104</v>
+        <v>63</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A44" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" s="10" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" s="8" t="s">
+      <c r="B43" s="10" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1349,14 +1154,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC9B950-7023-46FA-B2D0-AF185AE30305}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.25" customWidth="1"/>
-    <col min="2" max="2" width="42.25" customWidth="1"/>
+    <col min="2" max="2" width="88.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -1385,18 +1190,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CF842E-AB31-4F73-B988-7D6572AF2FB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE129437-2A6E-48D3-9D79-9297DD734EBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -132,10 +132,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{0}Lv.{1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SpotCordinate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,6 +374,10 @@
   </si>
   <si>
     <t>所需&lt;color=#ff0000&gt;{0}&lt;/color&gt;不足！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0} {1}级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -833,7 +833,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>7</v>
@@ -876,7 +876,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -916,60 +916,60 @@
         <v>25</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>24</v>
@@ -977,170 +977,170 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1154,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC9B950-7023-46FA-B2D0-AF185AE30305}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1190,18 +1190,18 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE129437-2A6E-48D3-9D79-9297DD734EBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3755538-AEAC-4E63-9442-1B75E432229E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
   <si>
     <t>索引</t>
   </si>
@@ -257,10 +257,6 @@
   </si>
   <si>
     <t>Lv.{0}(满级)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取{0}x{1}会超过资源上限！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -325,10 +321,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lv.{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CostNotEnought</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,6 +370,70 @@
   </si>
   <si>
     <t>{0} {1}级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurNextValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}-&gt;&lt;color=#00ff00&gt;{1}&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;{0}&lt;/color&gt;已经达到上限！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResCurrentFull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResCurrent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}&lt;color=#ff0000&gt;(已存{1})&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}&lt;color=#00ff00&gt;(已存{1})&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedBuildingLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还未建造&lt;color=#ff0000&gt;{0}&lt;/color&gt;，请前往建造！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoToBuild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级{0} {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CareerRecruitLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前兵种已经到达最大训练量！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市兵力已经到达上限{0}！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityArmyFull</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -787,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -876,7 +932,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -916,7 +972,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -1049,98 +1105,138 @@
     </row>
     <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1152,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC9B950-7023-46FA-B2D0-AF185AE30305}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1190,18 +1286,34 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3755538-AEAC-4E63-9442-1B75E432229E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4002FDC1-8B33-4672-8A85-FF7BC270F5C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="104">
   <si>
     <t>索引</t>
   </si>
@@ -425,15 +425,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当前兵种已经到达最大训练量！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>城市兵力已经到达上限{0}！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CityArmyFull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前有{0}正在训练中！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CareerRecruitYet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练最大上限为{0}！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -846,7 +854,7 @@
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1248,10 +1256,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC9B950-7023-46FA-B2D0-AF185AE30305}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1302,18 +1310,26 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4002FDC1-8B33-4672-8A85-FF7BC270F5C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BBC945-F54B-45E8-BA9B-E49C0D52FA6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="124">
   <si>
     <t>索引</t>
   </si>
@@ -442,6 +442,86 @@
   </si>
   <si>
     <t>训练最大上限为{0}！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoArmyCanHarvest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有可以收取的{0}！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArmyOverFlowHarvest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArmyHarvest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市增加了&lt;color=#00ff00&gt;{0}{1}&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次收取&lt;color=#ff0000&gt;{0}&lt;/color&gt;兵力将超过城市兵力上限，有&lt;color=#ff0000&gt;{1}&lt;/color&gt;兵力不会获得，是否继续？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoArmyRecruit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前并未训练&lt;color=#ff0000&gt;{0}&lt;/color&gt;！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CancelArmyNotice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消训练只会返回&lt;color=#00ff00&gt;{0}%&lt;/color&gt;资源，是否继续？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedUpCostNotEnought</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速所需&lt;color=#ff0000&gt;{0}&lt;/color&gt;不足！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedUpNotice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否确认加速完成？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinishArmyRecruit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已训练完成，可以直接进行收获！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedCostValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要消耗:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finished</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -851,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1247,6 +1327,54 @@
         <v>95</v>
       </c>
     </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1256,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC9B950-7023-46FA-B2D0-AF185AE30305}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1332,6 +1460,38 @@
         <v>103</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BBC945-F54B-45E8-BA9B-E49C0D52FA6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64168C7A-AD20-4349-BB4A-D2B501254351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="132">
   <si>
     <t>索引</t>
   </si>
@@ -300,228 +300,258 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CancelBuildNotice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否要取消建造？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostNotEnought</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}km</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LimitReach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此类建筑数量已达上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}升至{1}级后解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildNextCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}升至{1}级后可建造更多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}x{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需&lt;color=#ff0000&gt;{0}&lt;/color&gt;不足！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0} {1}级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurNextValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}-&gt;&lt;color=#00ff00&gt;{1}&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;{0}&lt;/color&gt;已经达到上限！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResCurrentFull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResCurrent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}&lt;color=#ff0000&gt;(已存{1})&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}&lt;color=#00ff00&gt;(已存{1})&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedBuildingLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还未建造&lt;color=#ff0000&gt;{0}&lt;/color&gt;，请前往建造！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoToBuild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级{0} {1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CareerRecruitLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市兵力已经到达上限{0}！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityArmyFull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前有{0}正在训练中！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CareerRecruitYet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练最大上限为{0}！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoArmyCanHarvest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有可以收取的{0}！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArmyOverFlowHarvest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArmyHarvest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市增加了&lt;color=#00ff00&gt;{0}{1}&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次收取&lt;color=#ff0000&gt;{0}&lt;/color&gt;兵力将超过城市兵力上限，有&lt;color=#ff0000&gt;{1}&lt;/color&gt;兵力不会获得，是否继续？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoArmyRecruit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前并未训练&lt;color=#ff0000&gt;{0}&lt;/color&gt;！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CancelArmyNotice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消训练只会返回&lt;color=#00ff00&gt;{0}%&lt;/color&gt;资源，是否继续？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedUpCostNotEnought</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速所需&lt;color=#ff0000&gt;{0}&lt;/color&gt;不足！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeedUpNotice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否确认加速完成？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinishArmyRecruit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已训练完成，可以直接进行收获！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedCostValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要消耗:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CareerRate1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CareerRate2</t>
+  </si>
+  <si>
+    <t>CareerRate3</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>声望高于{0}或
-好感度大于{1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CancelBuildNotice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否要取消建造？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuildRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CostNotEnought</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}km</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LimitReach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>此类建筑数量已达上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}升至{1}级后解锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuildNextCondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}升至{1}级后可建造更多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}x{1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>声望</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所需&lt;color=#ff0000&gt;{0}&lt;/color&gt;不足！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0} {1}级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CurNextValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}-&gt;&lt;color=#00ff00&gt;{1}&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;{0}&lt;/color&gt;已经达到上限！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResCurrentFull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResCurrent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}&lt;color=#ff0000&gt;(已存{1})&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}&lt;color=#00ff00&gt;(已存{1})&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NeedBuildingLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还未建造&lt;color=#ff0000&gt;{0}&lt;/color&gt;，请前往建造！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GoToBuild</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级{0} {1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CareerRecruitLimit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市兵力已经到达上限{0}！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CityArmyFull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前有{0}正在训练中！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CareerRecruitYet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>训练最大上限为{0}！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoArmyCanHarvest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有可以收取的{0}！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArmyOverFlowHarvest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArmyHarvest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市增加了&lt;color=#00ff00&gt;{0}{1}&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本次收取&lt;color=#ff0000&gt;{0}&lt;/color&gt;兵力将超过城市兵力上限，有&lt;color=#ff0000&gt;{1}&lt;/color&gt;兵力不会获得，是否继续？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoArmyRecruit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前并未训练&lt;color=#ff0000&gt;{0}&lt;/color&gt;！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CancelArmyNotice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消训练只会返回&lt;color=#00ff00&gt;{0}%&lt;/color&gt;资源，是否继续？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpeedUpCostNotEnought</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加速所需&lt;color=#ff0000&gt;{0}&lt;/color&gt;不足！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpeedUpNotice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否确认加速完成？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FinishArmyRecruit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已训练完成，可以直接进行收获！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NeedCostValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要消耗:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Finished</t>
+{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FavorCurrent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系:{0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -931,10 +961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1020,7 +1050,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -1060,7 +1090,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -1196,7 +1226,7 @@
         <v>59</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -1233,146 +1263,178 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>122</v>
+      <c r="B55" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1425,71 +1487,71 @@
         <v>58</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64168C7A-AD20-4349-BB4A-D2B501254351}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A939AC05-6E43-4662-A9AF-9FBFD0D8C9FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="3210" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="144">
   <si>
     <t>索引</t>
   </si>
@@ -528,18 +528,6 @@
   </si>
   <si>
     <t>CareerRate3</t>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>声望高于{0}或
@@ -552,6 +540,65 @@
   </si>
   <si>
     <t>关系:{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CareerRate4</t>
+  </si>
+  <si>
+    <t>&lt;color=#ffffff&gt;B&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#96F600&gt;A&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#E3E715&gt;S&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9D9D9D&gt;C&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄刷新剩余:{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TavenRefresh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroFavorUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroFavorDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;和{0}的关系拉近了！&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;和{0}的关系疏远了！&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AfterTimeTalk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}想静一静，过{1}后再来吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroFavorLevelChanged</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和{0}的关系变为{1}！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -961,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1226,7 +1273,7 @@
         <v>59</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -1410,7 +1457,7 @@
         <v>123</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
@@ -1418,7 +1465,7 @@
         <v>124</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
@@ -1426,15 +1473,63 @@
         <v>125</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A939AC05-6E43-4662-A9AF-9FBFD0D8C9FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892CFEAF-BF3E-4A95-B356-E03F5B451DC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="3210" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="155">
   <si>
     <t>索引</t>
   </si>
@@ -245,18 +245,6 @@
   </si>
   <si>
     <t>RoleLevelExp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoleLevelExpFull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv.{0}({1}/{2})</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lv.{0}(满级)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -578,14 +566,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#ff0000&gt;和{0}的关系拉近了！&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#00ff00&gt;和{0}的关系疏远了！&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AfterTimeTalk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -599,6 +579,70 @@
   </si>
   <si>
     <t>和{0}的关系变为{1}！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;和{0}的关系疏远了！&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;和{0}的关系拉近了！&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CareerEvaluateDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业评级对英雄携带兵种的基础攻击和防御有不同的系数加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;+{0}%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PercentAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PercentDes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ffffff&gt;+{0}%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PercentZeroAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;{0}%&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lv.{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募条件不满足！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecruitHeroUnSatisfy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecruitHeroSuccess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在下&lt;color=#00ff00&gt;{0}&lt;/color&gt;愿效犬马之劳！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1008,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1097,7 +1141,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -1137,7 +1181,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -1257,260 +1301,260 @@
         <v>54</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>129</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>139</v>
@@ -1518,18 +1562,66 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B64" s="8" t="s">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1579,74 +1671,74 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892CFEAF-BF3E-4A95-B356-E03F5B451DC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479C39AD-7BCE-43D3-809F-3629C34EE83D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="163">
   <si>
     <t>索引</t>
   </si>
@@ -643,6 +643,38 @@
   </si>
   <si>
     <t>在下&lt;color=#00ff00&gt;{0}&lt;/color&gt;愿效犬马之劳！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FullLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroMaxBlood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部队容量{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前队伍不是空闲状态！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamNotIdle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamNotOpen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前队伍还未解锁！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1052,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1624,6 +1656,22 @@
         <v>154</v>
       </c>
     </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1633,10 +1681,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC9B950-7023-46FA-B2D0-AF185AE30305}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1741,6 +1789,22 @@
         <v>115</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479C39AD-7BCE-43D3-809F-3629C34EE83D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A252DED-96B3-4B74-81E3-2D2DA122C134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="173">
   <si>
     <t>索引</t>
   </si>
@@ -675,6 +675,46 @@
   </si>
   <si>
     <t>当前队伍还未解锁！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoPatrol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前城市没有可以派出的斥候！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinishPatrol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoVisibleNoPatrol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;({0},{1})&lt;/color&gt;周围没有可视范围，不能进行侦察！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsVisibleNoPatrol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;({0},{1})&lt;/color&gt;已经侦察过，无需侦察！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoPatrol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已派出斥候侦察&lt;color=#00ff00&gt;({0},{1})&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斥候已完成侦察&lt;color=#00ff00&gt;({0},{1})&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1084,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1672,6 +1712,22 @@
         <v>158</v>
       </c>
     </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1681,10 +1737,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC9B950-7023-46FA-B2D0-AF185AE30305}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1805,6 +1861,30 @@
         <v>162</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A252DED-96B3-4B74-81E3-2D2DA122C134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D7F426-E2E3-482C-AF94-F7E1A20E03FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41025" yWindow="4155" windowWidth="28710" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="175">
   <si>
     <t>索引</t>
   </si>
@@ -715,6 +715,14 @@
   </si>
   <si>
     <t>斥候已完成侦察&lt;color=#00ff00&gt;({0},{1})&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HasSendPatrol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已有斥候正在前往&lt;color=#00ff00&gt;({0},{1})&lt;/color&gt;侦察中，无需重复派遣！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1126,7 +1134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
@@ -1737,10 +1745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC9B950-7023-46FA-B2D0-AF185AE30305}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1885,6 +1893,14 @@
         <v>169</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D7F426-E2E3-482C-AF94-F7E1A20E03FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DE9CAC-A2B1-4085-8ABC-55FBFDD2F8F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41025" yWindow="4155" windowWidth="28710" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9420" yWindow="2895" windowWidth="28710" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="180">
   <si>
     <t>索引</t>
   </si>
@@ -586,10 +586,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#00ff00&gt;和{0}的关系拉近了！&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CareerEvaluateDesc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -723,6 +719,30 @@
   </si>
   <si>
     <t>已有斥候正在前往&lt;color=#00ff00&gt;({0},{1})&lt;/color&gt;侦察中，无需重复派遣！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmptyVisibleSpot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmptyUnVisibleSpot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未探索地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpPatrol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侦察</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1132,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1386,10 +1406,10 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
@@ -1629,7 +1649,7 @@
         <v>133</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
@@ -1658,82 +1678,106 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>171</v>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1747,7 +1791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC9B950-7023-46FA-B2D0-AF185AE30305}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -1855,50 +1899,50 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DE9CAC-A2B1-4085-8ABC-55FBFDD2F8F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAA8F53-D222-4898-9699-C99D1CABEDEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="2895" windowWidth="28710" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8805" yWindow="1860" windowWidth="28710" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="192">
   <si>
     <t>索引</t>
   </si>
@@ -743,6 +743,54 @@
   </si>
   <si>
     <t>侦察</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余:{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeedTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要:{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;空闲&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreePartoller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BusyPartoller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF5F51&gt;侦查中&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoPatroller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公还没有斥候，请前往建筑斥候营！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主城</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1152,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:XFD77"/>
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1780,6 +1828,46 @@
         <v>179</v>
       </c>
     </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1789,10 +1877,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC9B950-7023-46FA-B2D0-AF185AE30305}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1945,6 +2033,14 @@
         <v>173</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAA8F53-D222-4898-9699-C99D1CABEDEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D454316-89A5-491B-9B06-F2B8356AFDA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8805" yWindow="1860" windowWidth="28710" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9300" yWindow="1050" windowWidth="28710" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="196">
   <si>
     <t>索引</t>
   </si>
@@ -791,6 +791,22 @@
   </si>
   <si>
     <t>主城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斥候探索发现了&lt;color=#00ff00&gt;{0}&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnCityName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1200,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1866,6 +1882,22 @@
       </c>
       <c r="B82" s="8" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D454316-89A5-491B-9B06-F2B8356AFDA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2841B6FA-8A98-4EE2-94EB-82FF67751398}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="1050" windowWidth="28710" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="204">
   <si>
     <t>索引</t>
   </si>
@@ -807,6 +807,38 @@
   </si>
   <si>
     <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityNoQuestDrop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;没有什么可探索的秘密了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoVisibleNoQuest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;周围没有可视范围，不能进行探索！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroInTeamNoQuest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;正在城市队伍中，不能进行探索！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoQuestCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已派出&lt;color=#00ff00&gt;{0}&lt;/color&gt;探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1216,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1900,6 +1932,14 @@
         <v>195</v>
       </c>
     </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1909,10 +1949,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC9B950-7023-46FA-B2D0-AF185AE30305}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2073,6 +2113,30 @@
         <v>189</v>
       </c>
     </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2841B6FA-8A98-4EE2-94EB-82FF67751398}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CAE6D7-72BD-4AB6-808C-CCAA384206D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="217">
   <si>
     <t>索引</t>
   </si>
@@ -839,6 +839,58 @@
   </si>
   <si>
     <t>已派出&lt;color=#00ff00&gt;{0}&lt;/color&gt;探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;完成，幸运的获得了&lt;color=#00ff00&gt;{2}&lt;/color&gt;！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;完成，一无所获！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestCityHasAward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestCityNoAward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}(已占)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnOccupyCityName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpQuestCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpCityInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进攻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1248,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1938,6 +1990,62 @@
       </c>
       <c r="B85" s="8" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CAE6D7-72BD-4AB6-808C-CCAA384206D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BFDB8D-BE75-4471-B113-C905A92B9E2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="2940" windowWidth="28710" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="260">
   <si>
     <t>索引</t>
   </si>
@@ -518,19 +518,10 @@
     <t>CareerRate3</t>
   </si>
   <si>
-    <t>声望高于{0}或
-{1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FavorCurrent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关系:{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CareerRate4</t>
   </si>
   <si>
@@ -578,14 +569,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>和{0}的关系变为{1}！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#ff0000&gt;和{0}的关系疏远了！&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CareerEvaluateDesc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -891,6 +874,187 @@
   </si>
   <si>
     <t>进攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroHasQuest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;正在前往探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;，无需重复派遣！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TalentFail1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TalentFail2</t>
+  </si>
+  <si>
+    <t>TalentFail3</t>
+  </si>
+  <si>
+    <t>TalentFail4</t>
+  </si>
+  <si>
+    <t>TalentSuccess1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TalentSuccess2</t>
+  </si>
+  <si>
+    <t>TalentSuccess3</t>
+  </si>
+  <si>
+    <t>TalentSuccess4</t>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;在探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;中与文人论道，对方&lt;color=#00ff00&gt;口才{2}&lt;/color&gt;，你铩羽而归，&lt;color=#ff0000&gt;探索失败,一无所获！&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;在探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;中遭遇劫匪，对方&lt;color=#00ff00&gt;切磋{2}&lt;/color&gt;，你马失前蹄，&lt;color=#ff0000&gt;探索失败,一无所获！&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;在探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;中斗诗舞文，对方&lt;color=#00ff00&gt;文采{2}&lt;/color&gt;，你一败涂地，&lt;color=#ff0000&gt;探索失败,一无所获！&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;在探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;中斗诗舞文，你才高八斗，一鸣惊人，获得&lt;color=#00ff00&gt;{2}&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;建造完成&lt;color=#00ff00&gt;({1},{2})&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildFinish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpgradeBuildFinish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;升级Lv.{1}完成&lt;color=#00ff00&gt;({2},{3})&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;在探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;中偶遇赌局，对方&lt;color=#00ff00&gt;赌博{2}&lt;/color&gt;，你满盘皆输，&lt;color=#ff0000&gt;探索失败,一无所获！&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;在探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;中遭遇劫匪，你勇不可挡，所向披靡，获得&lt;color=#00ff00&gt;{2}&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;在探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;中偶遇赌局，你手眼通天，财大气粗，获得&lt;color=#00ff00&gt;{2}&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;在探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;中与文人论道，你言辞激昂，所向披靡，获得&lt;color=#00ff00&gt;{2}&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋是英雄在外探索可能遭遇的情况应对能力，数值越高成功率越大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroTalentDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索能力值不够时，运势也许会为你逆天改命,赢得胜利！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LuckyDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Talent1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Talent2</t>
+  </si>
+  <si>
+    <t>Talent3</t>
+  </si>
+  <si>
+    <t>Talent4</t>
+  </si>
+  <si>
+    <t>口才</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切磋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赌博</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文采</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LuckyValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运势{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力{0}/{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnegryCurMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前羁绊:{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募需声望:{0}
+或
+羁绊:{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和{0}的羁绊变为{1}！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;和{0}的羁绊更进一步了！&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;和{0}的羁绊疏远了！&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroNoEnegry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动需要&lt;color=#ff0000&gt;{0}点&lt;/color&gt;体力，当前英雄体力不足！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索{0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1300,16 +1464,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K83" sqref="K83"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="139.625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="186.125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1554,18 +1718,18 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>123</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -1749,7 +1913,7 @@
         <v>120</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
@@ -1757,7 +1921,7 @@
         <v>121</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
@@ -1765,236 +1929,236 @@
         <v>122</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>125</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>131</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>139</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>138</v>
+        <v>253</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>77</v>
@@ -2002,50 +2166,202 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B93" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" s="4" t="s">
         <v>216</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2057,10 +2373,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC9B950-7023-46FA-B2D0-AF185AE30305}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2167,82 +2483,98 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BFDB8D-BE75-4471-B113-C905A92B9E2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BAB130-702E-43C4-B97D-2EAF5DE0FD3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="2940" windowWidth="28710" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="264">
   <si>
     <t>索引</t>
   </si>
@@ -1055,6 +1055,22 @@
   </si>
   <si>
     <t>探索{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OwnCitySuccess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功攻占了&lt;color=#00ff00&gt;{0}({1},{2})&lt;/color&gt;！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoOwnNoQuest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;还没有被攻占，无法进行探索！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1464,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B111"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2364,6 +2380,14 @@
         <v>259</v>
       </c>
     </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2373,10 +2397,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC9B950-7023-46FA-B2D0-AF185AE30305}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D31" activeCellId="1" sqref="A25 D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2577,6 +2601,14 @@
         <v>257</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BAB130-702E-43C4-B97D-2EAF5DE0FD3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E151E3-C486-45AB-BC18-166213CCA0F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42675" yWindow="3675" windowWidth="28710" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="336">
   <si>
     <t>索引</t>
   </si>
@@ -781,10 +781,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>斥候探索发现了&lt;color=#00ff00&gt;{0}&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OwnCityName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -911,22 +907,6 @@
     <t>TalentSuccess4</t>
   </si>
   <si>
-    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;在探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;中与文人论道，对方&lt;color=#00ff00&gt;口才{2}&lt;/color&gt;，你铩羽而归，&lt;color=#ff0000&gt;探索失败,一无所获！&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;在探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;中遭遇劫匪，对方&lt;color=#00ff00&gt;切磋{2}&lt;/color&gt;，你马失前蹄，&lt;color=#ff0000&gt;探索失败,一无所获！&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;在探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;中斗诗舞文，对方&lt;color=#00ff00&gt;文采{2}&lt;/color&gt;，你一败涂地，&lt;color=#ff0000&gt;探索失败,一无所获！&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;在探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;中斗诗舞文，你才高八斗，一鸣惊人，获得&lt;color=#00ff00&gt;{2}&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;建造完成&lt;color=#00ff00&gt;({1},{2})&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -940,22 +920,6 @@
   </si>
   <si>
     <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;升级Lv.{1}完成&lt;color=#00ff00&gt;({2},{3})&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;在探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;中偶遇赌局，对方&lt;color=#00ff00&gt;赌博{2}&lt;/color&gt;，你满盘皆输，&lt;color=#ff0000&gt;探索失败,一无所获！&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;在探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;中遭遇劫匪，你勇不可挡，所向披靡，获得&lt;color=#00ff00&gt;{2}&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;在探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;中偶遇赌局，你手眼通天，财大气粗，获得&lt;color=#00ff00&gt;{2}&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;在探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;中与文人论道，你言辞激昂，所向披靡，获得&lt;color=#00ff00&gt;{2}&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1071,6 +1035,324 @@
   </si>
   <si>
     <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;还没有被攻占，无法进行探索！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;周围没有可视范围，不能进行攻击！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoVisibleNoAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可视区域解锁发现了&lt;color=#00ff00&gt;{0}&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前没有空闲的英雄可以进行探索！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoHeroFreeToQuest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LuckyTalentSuccess1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LuckyTalentSuccess2</t>
+  </si>
+  <si>
+    <t>LuckyTalentSuccess3</t>
+  </si>
+  <si>
+    <t>LuckyTalentSuccess4</t>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;在探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;中遭遇劫匪，我方勇不可挡，所向披靡，获得&lt;color=#00ff00&gt;{2}&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;在探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;中偶遇赌局，我方手眼通天，财大气粗，获得&lt;color=#00ff00&gt;{2}&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;在探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;中斗诗舞文，我方才高八斗，一鸣惊人，获得&lt;color=#00ff00&gt;{2}&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;在探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;中与文人论道，虽不敌，却凭运势逆转，竖子成名，获得&lt;color=#00ff00&gt;{2}&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;在探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;中遭遇劫匪，虽不敌，却凭运势逆转，绝处逢生，获得&lt;color=#00ff00&gt;{2}&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;在探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;中偶遇赌局，虽不敌，却凭运势逆转，福星高照，获得&lt;color=#00ff00&gt;{2}&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;在探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;中斗诗舞文，虽不敌，却凭运势逆转，口吐珠玑，获得&lt;color=#00ff00&gt;{2}&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;在探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;中与文人论道，我方巧舌如簧，语惊四座，获得&lt;color=#00ff00&gt;{2}&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;在探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;中与文人论道，对方&lt;color=#00ff00&gt;口才{2}&lt;/color&gt;，我方铩羽而归，&lt;color=#ff0000&gt;一无所获！&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;在探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;中遭遇劫匪，对方&lt;color=#00ff00&gt;切磋{2}&lt;/color&gt;，我方马失前蹄，&lt;color=#ff0000&gt;一无所获！&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;在探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;中偶遇赌局，对方&lt;color=#00ff00&gt;赌博{2}&lt;/color&gt;，我方满盘皆输，&lt;color=#ff0000&gt;一无所获！&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;在探索&lt;color=#00ff00&gt;{1}&lt;/color&gt;中斗诗舞文，对方&lt;color=#00ff00&gt;文采{2}&lt;/color&gt;，我方一败涂地，&lt;color=#ff0000&gt;一无所获！&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PathType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PathType2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PathType3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#31CD0B&gt;侦&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FD8174&gt;攻&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#74D7FD&gt;探&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}/{1}/{2} {3}:{4}:{5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataWithYDMHMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataWithMDHM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}/{1} {2}:{3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}年前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}月前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateYearAgo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateMonthAgo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateWeekAgo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}周前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateDayAgo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}天前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateHourAgo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}小时前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateMinAgo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}分钟前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateJustAgo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#F3D48B&gt;{0} &lt;/color&gt;{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogItemContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogTypeHeroFavorLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogTypeHeroFavorChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogTypeHarvestArmy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogTypeDoPatrol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogTypeFinishPatrol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogTypeQuestCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogTypeQuestCityResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogTypePatroFindCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogTypeBuildUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogTypeRecruitHeroSuccess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogTypeOwnCityResp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>募</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收取税收&lt;color=#00ff00&gt;{0}{1}&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetHourTax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogTypeHourTax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主城{0}级解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamOpenCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamStatus1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamStatus2</t>
+  </si>
+  <si>
+    <t>TeamStatus3</t>
+  </si>
+  <si>
+    <t>TeamStatus4</t>
+  </si>
+  <si>
+    <t>空闲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵力 {0}/{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamBlood</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1480,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B148"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1745,7 +2027,7 @@
         <v>56</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -1961,7 +2243,7 @@
         <v>123</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
@@ -1977,7 +2259,7 @@
         <v>131</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
@@ -1985,7 +2267,7 @@
         <v>132</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
@@ -2001,7 +2283,7 @@
         <v>135</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
@@ -2153,28 +2435,28 @@
         <v>188</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>189</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>77</v>
@@ -2182,210 +2464,498 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B90" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>209</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B92" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>223</v>
+        <v>272</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>261</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A120" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A124" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A126" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A127" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A128" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A130" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A131" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A132" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A134" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A135" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A136" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A138" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A140" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A141" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A142" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A143" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A144" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A145" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A146" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A147" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A148" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -2397,10 +2967,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC9B950-7023-46FA-B2D0-AF185AE30305}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D31" activeCellId="1" sqref="A25 D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2563,50 +3133,66 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>213</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>263</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E151E3-C486-45AB-BC18-166213CCA0F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8DC206-2CA2-4C9A-8B73-23DE51C197BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42675" yWindow="3675" windowWidth="28710" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="340">
   <si>
     <t>索引</t>
   </si>
@@ -907,10 +907,6 @@
     <t>TalentSuccess4</t>
   </si>
   <si>
-    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;建造完成&lt;color=#00ff00&gt;({1},{2})&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BuildFinish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -919,10 +915,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;升级Lv.{1}完成&lt;color=#00ff00&gt;({2},{3})&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>天赋是英雄在外探索可能遭遇的情况应对能力，数值越高成功率越大</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -973,10 +965,6 @@
   </si>
   <si>
     <t>运势{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体力{0}/{1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1353,6 +1341,34 @@
   </si>
   <si>
     <t>TeamBlood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;建造完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;升级Lv.{1}完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamSetSuccess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部队设置完成！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力{0}/{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArmyRecruitFinish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;完成&lt;color=#00ff00&gt;{1}x{2}&lt;/color&gt;训练！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1762,10 +1778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B148"/>
+  <dimension ref="A1:B150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2027,7 +2043,7 @@
         <v>56</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -2243,7 +2259,7 @@
         <v>123</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
@@ -2259,7 +2275,7 @@
         <v>131</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
@@ -2267,7 +2283,7 @@
         <v>132</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
@@ -2283,7 +2299,7 @@
         <v>135</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
@@ -2435,7 +2451,7 @@
         <v>188</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
@@ -2515,7 +2531,7 @@
         <v>214</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
@@ -2523,7 +2539,7 @@
         <v>215</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
@@ -2531,7 +2547,7 @@
         <v>216</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
@@ -2539,7 +2555,7 @@
         <v>217</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
@@ -2547,7 +2563,7 @@
         <v>218</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
@@ -2555,7 +2571,7 @@
         <v>219</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
@@ -2563,7 +2579,7 @@
         <v>220</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
@@ -2571,391 +2587,407 @@
         <v>221</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>222</v>
+        <v>333</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>225</v>
+        <v>334</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>240</v>
+        <v>337</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B117" s="8" t="s">
         <v>276</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B118" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B119" s="8" t="s">
         <v>278</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A149" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="B148" s="8" t="s">
-        <v>334</v>
+      <c r="B149" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A150" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3165,34 +3197,34 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8DC206-2CA2-4C9A-8B73-23DE51C197BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4305ADC2-3A15-4F69-9E08-5314D2B2E76B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9225" yWindow="2640" windowWidth="28710" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="355">
   <si>
     <t>索引</t>
   </si>
@@ -1369,6 +1369,73 @@
   </si>
   <si>
     <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;完成&lt;color=#00ff00&gt;{1}x{2}&lt;/color&gt;训练！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogTypeFinshArmy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamAttrTips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍的属性基于：英雄属性系数、职业评级、兵种、兵力来综合进行计算。
+1、攻击：队伍的输出伤害能力。
+2、防御：队伍能够抵御伤害的能力。
+3、血量：队伍的存活能力。
+4、速度：队伍出手攻击的先后顺序。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoraleDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军团士气:
+1、士气高低会影响英雄战斗的属性。
+2、出征时行军时间越长，士气消耗越大。
+3、到达行军目标后士气每分钟自动恢复5%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力不足无法出征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnegryNotEnough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamNotInCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部队不在城内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamNoBlood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄没有兵力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;军团&lt;color=#00ff00&gt;{0}只部队&lt;/color&gt;出征，前往攻占&lt;color=#00ff00&gt;{1}&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackCityMoveOut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogTypeAttackCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>征</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1778,10 +1845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B150"/>
+  <dimension ref="A1:B158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2920,74 +2987,138 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A151" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A152" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B150" s="8" t="s">
+      <c r="B152" s="8" t="s">
         <v>339</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A153" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+      <c r="A154" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A155" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A156" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A157" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A158" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4305ADC2-3A15-4F69-9E08-5314D2B2E76B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEFF814-1973-46C8-B2E3-4990D1CC96E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9225" yWindow="2640" windowWidth="28710" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9450" yWindow="3795" windowWidth="28710" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="358">
   <si>
     <t>索引</t>
   </si>
@@ -1314,25 +1314,7 @@
     <t>TeamStatus2</t>
   </si>
   <si>
-    <t>TeamStatus3</t>
-  </si>
-  <si>
-    <t>TeamStatus4</t>
-  </si>
-  <si>
     <t>空闲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1436,6 +1418,38 @@
   </si>
   <si>
     <t>征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackCityWaitFight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;军团已经到达&lt;color=#00ff00&gt;{1}&lt;/color&gt;，等待你确认进入战斗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PathType4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00D7FD&gt;征&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoArmyNoTeam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前没有兵不可上阵！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>征战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1845,10 +1859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B158"/>
+  <dimension ref="A1:B159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2694,7 +2708,7 @@
         <v>222</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
@@ -2702,7 +2716,7 @@
         <v>223</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
@@ -2766,7 +2780,7 @@
         <v>238</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
@@ -2811,95 +2825,95 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
-        <v>280</v>
+        <v>352</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>279</v>
+        <v>353</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B131" s="8" t="s">
         <v>310</v>
@@ -2907,23 +2921,23 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B134" s="8" t="s">
         <v>312</v>
@@ -2931,15 +2945,15 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>313</v>
@@ -2947,177 +2961,185 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B148" s="8" t="s">
         <v>325</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="54" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B158" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A159" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B159" s="8" t="s">
         <v>351</v>
       </c>
     </row>
@@ -3130,10 +3152,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC9B950-7023-46FA-B2D0-AF185AE30305}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3358,8 +3380,17 @@
         <v>255</v>
       </c>
     </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEFF814-1973-46C8-B2E3-4990D1CC96E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527EC896-E8E7-406A-9C64-185C29B65741}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9450" yWindow="3795" windowWidth="28710" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7050" yWindow="1620" windowWidth="28710" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="364">
   <si>
     <t>索引</t>
   </si>
@@ -618,10 +618,6 @@
   </si>
   <si>
     <t>RecruitHeroSuccess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在下&lt;color=#00ff00&gt;{0}&lt;/color&gt;愿效犬马之劳！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1450,6 +1446,34 @@
   </si>
   <si>
     <t>战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackCityFail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackCitySuccess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;军团&lt;color=#ff0000&gt;败给了 {1}&lt;/color&gt;守军，落荒而逃。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;军团&lt;color=#00ff00&gt;战胜了 {1}&lt;/color&gt;守军，占领了城市获得了&lt;color=#00ff00&gt;{2}}&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄&lt;color=#00ff00&gt;{0}&lt;/color&gt;愿效犬马之劳！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpPreBattle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备战斗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1859,10 +1883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B159"/>
+  <dimension ref="A1:B162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2124,7 +2148,7 @@
         <v>56</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -2340,7 +2364,7 @@
         <v>123</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
@@ -2356,7 +2380,7 @@
         <v>131</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
@@ -2364,7 +2388,7 @@
         <v>132</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
@@ -2380,7 +2404,7 @@
         <v>135</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
@@ -2428,132 +2452,132 @@
         <v>148</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>149</v>
+        <v>361</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>165</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B76" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B77" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>178</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B81" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>189</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>77</v>
@@ -2561,415 +2585,415 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B90" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B92" s="8" t="s">
         <v>210</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
-        <v>214</v>
+        <v>362</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>269</v>
+        <v>363</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>328</v>
+        <v>266</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>224</v>
+        <v>328</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>332</v>
+        <v>236</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>247</v>
+        <v>331</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
-        <v>352</v>
+        <v>274</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>353</v>
+        <v>277</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
-        <v>280</v>
+        <v>351</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>279</v>
+        <v>352</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B138" s="8" t="s">
         <v>312</v>
@@ -2977,170 +3001,194 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B149" s="8" t="s">
         <v>324</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A153" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B153" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="B152" s="8" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A153" s="4" t="s">
+    </row>
+    <row r="154" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A154" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B154" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="B153" s="10" t="s">
+    </row>
+    <row r="155" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+      <c r="A155" s="4" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" ht="54" x14ac:dyDescent="0.15">
-      <c r="A154" s="4" t="s">
+      <c r="B155" s="10" t="s">
         <v>338</v>
-      </c>
-      <c r="B154" s="10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A155" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A160" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B160" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="B159" s="8" t="s">
-        <v>351</v>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A161" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A162" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -3262,130 +3310,130 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>191</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>195</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>212</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>244</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>354</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527EC896-E8E7-406A-9C64-185C29B65741}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE904876-613C-49C4-B920-60994205C05A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="1620" windowWidth="28710" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="375">
   <si>
     <t>索引</t>
   </si>
@@ -157,10 +157,6 @@
   </si>
   <si>
     <t>{0}&lt;color=#ff0000&gt;/{1}&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#00ff00&gt;&lt;u&gt;({0},{1})&lt;/u&gt;&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1401,10 +1397,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;军团&lt;color=#00ff00&gt;{0}只部队&lt;/color&gt;出征，前往攻占&lt;color=#00ff00&gt;{1}&lt;/color&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AttackCityMoveOut</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1461,10 +1453,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;军团&lt;color=#00ff00&gt;战胜了 {1}&lt;/color&gt;守军，占领了城市获得了&lt;color=#00ff00&gt;{2}}&lt;/color&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>英雄&lt;color=#00ff00&gt;{0}&lt;/color&gt;愿效犬马之劳！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1474,6 +1462,62 @@
   </si>
   <si>
     <t>准备战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}军团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityGroupName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;已抵达&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArriveYet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;行军中&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogTypeAttackCityWaitFight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackCityBack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军团已经返回&lt;color=#00ff00&gt;{0}&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogTypeAttackCityBack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;军团&lt;color=#00ff00&gt;战胜了 {1}&lt;/color&gt;守军，占领了城市获得了&lt;color=#00ff00&gt;{2}&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;军团&lt;color=#00ff00&gt;{1}只部队&lt;/color&gt;出征，前往攻占&lt;color=#00ff00&gt;{2}&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;({0},{1})&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1883,10 +1927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B162"/>
+  <dimension ref="A1:B167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1929,7 +1973,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>7</v>
@@ -1972,7 +2016,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -2012,7 +2056,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -2020,7 +2064,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>33</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -2049,23 +2093,23 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>24</v>
@@ -2073,63 +2117,63 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>30</v>
@@ -2137,1058 +2181,1098 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>164</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B76" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B77" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B81" s="8" t="s">
         <v>181</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B84" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B90" s="8" t="s">
         <v>205</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B92" s="8" t="s">
         <v>209</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B114" s="8" t="s">
         <v>235</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B116" s="8" t="s">
         <v>245</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B117" s="8" t="s">
         <v>247</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B123" s="8" t="s">
         <v>280</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B126" s="8" t="s">
         <v>286</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B127" s="8" t="s">
         <v>288</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B128" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B129" s="8" t="s">
         <v>292</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B130" s="8" t="s">
         <v>294</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B143" s="8" t="s">
         <v>318</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
-        <v>317</v>
+        <v>370</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>316</v>
+        <v>371</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B150" s="8" t="s">
         <v>323</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A154" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B154" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="B153" s="8" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A154" s="4" t="s">
+    </row>
+    <row r="155" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A155" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B155" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B154" s="10" t="s">
+    </row>
+    <row r="156" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+      <c r="A156" s="4" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" ht="54" x14ac:dyDescent="0.15">
-      <c r="A155" s="4" t="s">
+      <c r="B156" s="10" t="s">
         <v>337</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A156" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A163" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B163" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="B162" s="8" t="s">
-        <v>359</v>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A164" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A165" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A166" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A167" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -3238,202 +3322,202 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>162</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>249</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE904876-613C-49C4-B920-60994205C05A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95998CA3-FA27-4A8F-AC5A-EB92C91B61AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6885" yWindow="2055" windowWidth="28710" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="379">
   <si>
     <t>索引</t>
   </si>
@@ -1518,6 +1518,22 @@
   </si>
   <si>
     <t>&lt;color=#00ff00&gt;({0},{1})&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先选择要上阵的位置！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectUpPostion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoUpPlayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还没有上阵任何英雄！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1927,10 +1943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B167"/>
+  <dimension ref="A1:B168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3275,6 +3291,14 @@
         <v>369</v>
       </c>
     </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A168" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>375</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3284,10 +3308,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC9B950-7023-46FA-B2D0-AF185AE30305}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3520,6 +3544,14 @@
         <v>352</v>
       </c>
     </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95998CA3-FA27-4A8F-AC5A-EB92C91B61AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E78B45-DE1D-4D46-AA9A-78B1729B76E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6885" yWindow="2055" windowWidth="28710" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="383">
   <si>
     <t>索引</t>
   </si>
@@ -1534,6 +1534,22 @@
   </si>
   <si>
     <t>还没有上阵任何英雄！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;+{0}&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;{0}&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BloodAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BloodDesc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1943,10 +1959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B168"/>
+  <dimension ref="A1:B170"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B170" sqref="B170"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3299,6 +3315,22 @@
         <v>375</v>
       </c>
     </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A169" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A170" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3310,7 +3342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC9B950-7023-46FA-B2D0-AF185AE30305}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E78B45-DE1D-4D46-AA9A-78B1729B76E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FAD494-6CE0-46CB-B99B-CD347F1AA398}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6315" yWindow="3435" windowWidth="28710" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="393">
   <si>
     <t>索引</t>
   </si>
@@ -1112,14 +1112,6 @@
   </si>
   <si>
     <t>&lt;color=#31CD0B&gt;侦&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FD8174&gt;攻&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#74D7FD&gt;探&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1421,10 +1413,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#00D7FD&gt;征&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NoArmyNoTeam</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1449,10 +1437,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;军团&lt;color=#ff0000&gt;败给了 {1}&lt;/color&gt;守军，落荒而逃。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>英雄&lt;color=#00ff00&gt;{0}&lt;/color&gt;愿效犬马之劳！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1481,10 +1465,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#ff0000&gt;行军中&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Moving</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1509,10 +1489,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;军团&lt;color=#00ff00&gt;战胜了 {1}&lt;/color&gt;守军，占领了城市获得了&lt;color=#00ff00&gt;{2}&lt;/color&gt;。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;军团&lt;color=#00ff00&gt;{1}只部队&lt;/color&gt;出征，前往攻占&lt;color=#00ff00&gt;{2}&lt;/color&gt;。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1550,6 +1526,70 @@
   </si>
   <si>
     <t>BloodDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军团&lt;color=#00ff00&gt;战胜了 {0}&lt;/color&gt;守军，占领了城市获得了&lt;color=#00ff00&gt;{1}&lt;/color&gt;。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军团&lt;color=#ff0000&gt;败给了 {0}&lt;/color&gt;守军，损兵折将。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FD8174&gt;探&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#74D7FD&gt;征&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00D7FD&gt;返&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoTeamCanFight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前没有可出战上阵的队伍！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#ff0000&gt;行军中({0})&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Backing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFBD02&gt;返回中({0})&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupBacking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军团正在返回中！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupFighting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军团正在战斗中！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupHasBack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军团已返回城市！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1959,10 +1999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B170"/>
+  <dimension ref="A1:B171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B184" sqref="B184"/>
+    <sheetView topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2096,7 +2136,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -2528,7 +2568,7 @@
         <v>147</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
@@ -2709,10 +2749,10 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
@@ -2816,7 +2856,7 @@
         <v>220</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
@@ -2824,7 +2864,7 @@
         <v>221</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
@@ -2888,7 +2928,7 @@
         <v>236</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
@@ -2920,7 +2960,7 @@
         <v>272</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>275</v>
+        <v>379</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
@@ -2928,407 +2968,415 @@
         <v>273</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>276</v>
+        <v>380</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B150" s="8" t="s">
         <v>321</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="54" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A166" s="4" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>380</v>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A171" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -3340,10 +3388,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC9B950-7023-46FA-B2D0-AF185AE30305}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3570,18 +3618,50 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>378</v>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FAD494-6CE0-46CB-B99B-CD347F1AA398}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B55802-6324-4187-A74A-AA8E7B253655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6315" yWindow="3435" windowWidth="28710" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47025" yWindow="2865" windowWidth="28950" windowHeight="15915" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="403">
   <si>
     <t>索引</t>
   </si>
@@ -1590,6 +1590,46 @@
   </si>
   <si>
     <t>军团已返回城市！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillType2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillType3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillType4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连携型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveSkillRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无需主动释放</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3388,10 +3428,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC9B950-7023-46FA-B2D0-AF185AE30305}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3664,6 +3704,46 @@
         <v>392</v>
       </c>
     </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>402</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B55802-6324-4187-A74A-AA8E7B253655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F16EF0-5A58-404C-B2AA-2ADB7545700C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47025" yWindow="2865" windowWidth="28950" windowHeight="15915" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="428">
   <si>
     <t>索引</t>
   </si>
@@ -1513,22 +1513,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#00ff00&gt;+{0}&lt;/color&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#ff0000&gt;{0}&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BloodAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BloodDesc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>军团&lt;color=#00ff00&gt;战胜了 {0}&lt;/color&gt;守军，占领了城市获得了&lt;color=#00ff00&gt;{1}&lt;/color&gt;。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1630,6 +1618,116 @@
   </si>
   <si>
     <t>无需主动释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffNameDemage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffNameDefense_Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffNameHeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffNameAttack_Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffNameSpeed_Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffNameGoOnDemage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillType2</t>
+  </si>
+  <si>
+    <t>SkillType3</t>
+  </si>
+  <si>
+    <t>SkillType4</t>
+  </si>
+  <si>
+    <t>连携</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己的行动回合自动触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始前触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击后触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReleaseSelfRound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReleaseBeforeRound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReleaseAfterAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReleaseManual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffEffectTips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forever</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff效果：{0}
+剩余回合：{1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2039,10 +2137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B171"/>
+  <dimension ref="A1:B187"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3000,7 +3098,7 @@
         <v>272</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
@@ -3008,7 +3106,7 @@
         <v>273</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
@@ -3016,7 +3114,7 @@
         <v>347</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
@@ -3344,7 +3442,7 @@
         <v>353</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.15">
@@ -3352,7 +3450,7 @@
         <v>352</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.15">
@@ -3376,15 +3474,15 @@
         <v>361</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.15">
@@ -3405,18 +3503,146 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>373</v>
+        <v>188</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" s="4" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A172" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A173" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A174" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A175" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A176" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A177" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A178" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A179" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A180" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A181" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A182" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A183" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A184" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A185" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A186" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A187" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -3430,8 +3656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC9B950-7023-46FA-B2D0-AF185AE30305}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3674,74 +3900,74 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F16EF0-5A58-404C-B2AA-2ADB7545700C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D899608-67B3-4484-B0E2-FADBFD5BD925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="425">
   <si>
     <t>索引</t>
   </si>
@@ -1653,15 +1653,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SkillType2</t>
-  </si>
-  <si>
-    <t>SkillType3</t>
-  </si>
-  <si>
-    <t>SkillType4</t>
-  </si>
-  <si>
     <t>连携</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1699,10 +1690,6 @@
   </si>
   <si>
     <t>ReleaseSelfRound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReleaseBeforeRound</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1728,6 +1715,10 @@
   <si>
     <t>Buff效果：{0}
 剩余回合：{1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReleaseBeforeStart</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2137,10 +2128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B187"/>
+  <dimension ref="A1:B185"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188"/>
+      <selection activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3522,7 +3513,7 @@
         <v>400</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.15">
@@ -3530,7 +3521,7 @@
         <v>401</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.15">
@@ -3538,7 +3529,7 @@
         <v>402</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.15">
@@ -3546,7 +3537,7 @@
         <v>403</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.15">
@@ -3554,7 +3545,7 @@
         <v>404</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.15">
@@ -3562,7 +3553,7 @@
         <v>405</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.15">
@@ -3575,7 +3566,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A179" s="4" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="B179" s="8" t="s">
         <v>395</v>
@@ -3583,66 +3574,50 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A180" s="4" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A181" s="4" t="s">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A182" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A183" s="4" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A184" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="B184" s="8" t="s">
-        <v>418</v>
+        <v>420</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A185" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A186" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="B186" s="10" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A187" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="B187" s="8" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D899608-67B3-4484-B0E2-FADBFD5BD925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F547D5B5-5A53-40F3-83D4-22F0E244EC1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="428">
   <si>
     <t>索引</t>
   </si>
@@ -1653,38 +1653,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>连携</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自己的行动回合自动触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗开始前触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通攻击后触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>手动释放</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1719,6 +1687,53 @@
   </si>
   <si>
     <t>ReleaseBeforeStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP:
+1、战斗开始时MP为100
+2、释放需要消耗对应MP值
+3、自身行动回合会恢复一定MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MpValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP:{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始前自动触发判断概率是否释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己的行动回合开始时自动触发判断概率是否释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击后自动触发判断概率是否释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2128,10 +2143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B185"/>
+  <dimension ref="A1:B187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="B180" sqref="B180"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3513,7 +3528,7 @@
         <v>400</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.15">
@@ -3521,7 +3536,7 @@
         <v>401</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.15">
@@ -3529,7 +3544,7 @@
         <v>402</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.15">
@@ -3537,7 +3552,7 @@
         <v>403</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.15">
@@ -3545,7 +3560,7 @@
         <v>404</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.15">
@@ -3553,7 +3568,7 @@
         <v>405</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.15">
@@ -3574,50 +3589,66 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A180" s="4" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A181" s="4" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A182" s="4" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A183" s="4" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="27" x14ac:dyDescent="0.15">
       <c r="A184" s="4" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B184" s="10" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A185" s="4" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>421</v>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+      <c r="A186" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A187" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F547D5B5-5A53-40F3-83D4-22F0E244EC1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392387CB-A68F-401B-82AD-4875F6C36617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="430">
   <si>
     <t>索引</t>
   </si>
@@ -1734,6 +1734,14 @@
   </si>
   <si>
     <t>速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2143,10 +2151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B187"/>
+  <dimension ref="A1:B188"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+      <selection activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3649,6 +3657,14 @@
       </c>
       <c r="B187" s="8" t="s">
         <v>420</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A188" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392387CB-A68F-401B-82AD-4875F6C36617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA325311-543E-4FA2-9E4E-77238FA53A7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="449">
   <si>
     <t>索引</t>
   </si>
@@ -1742,6 +1742,82 @@
   </si>
   <si>
     <t>普攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;获得了&lt;color=#00ff00&gt;{1}经验&lt;/color&gt;，等级提升为&lt;color=#00ff00&gt;Lv.{2}&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#00ff00&gt;{0}&lt;/color&gt;获得了&lt;color=#00ff00&gt;{1}经验&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroAddExpLevelUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroAddExp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogTypeHero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上阵兵力不能为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpTeamNeedCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}/{1}&lt;color=#ff0000&gt;({1}伤兵)&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamArmyCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamArmyCountWounded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BornHasOccupy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前位置已经有人了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoBornPlace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有可以上阵的位置了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoodAnswer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BadAnswer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#064B00&gt;再下被你的渊博学识而折服~&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#9F2600&gt;再下为你的无知感到悲哀~&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2151,10 +2227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B188"/>
+  <dimension ref="A1:B195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3341,330 +3417,386 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
-        <v>314</v>
+        <v>434</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>313</v>
+        <v>435</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A155" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B155" s="8" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A155" s="4" t="s">
+    <row r="156" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A156" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="B155" s="10" t="s">
+      <c r="B156" s="10" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="54" x14ac:dyDescent="0.15">
-      <c r="A156" s="4" t="s">
+    <row r="157" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+      <c r="A157" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="B157" s="10" t="s">
         <v>335</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A157" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>367</v>
+        <v>341</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A166" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>188</v>
+        <v>369</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A171" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>373</v>
+        <v>188</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>424</v>
+        <v>373</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A174" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A175" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A176" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A177" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A178" s="4" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A179" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A180" s="4" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A181" s="4" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A182" s="4" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A183" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A184" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="B183" s="8" t="s">
+      <c r="B184" s="8" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A184" s="4" t="s">
+    <row r="185" spans="1:2" ht="27" x14ac:dyDescent="0.15">
+      <c r="A185" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="B184" s="10" t="s">
+      <c r="B185" s="10" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A185" s="4" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A186" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="B185" s="8" t="s">
+      <c r="B186" s="8" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="54" x14ac:dyDescent="0.15">
-      <c r="A186" s="4" t="s">
+    <row r="187" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+      <c r="A187" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="B186" s="10" t="s">
+      <c r="B187" s="10" t="s">
         <v>418</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A187" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="B187" s="8" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A188" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A189" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="B188" s="8" t="s">
+      <c r="B189" s="8" t="s">
         <v>429</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A190" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A191" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A192" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A193" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A194" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A195" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -3676,10 +3808,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC9B950-7023-46FA-B2D0-AF185AE30305}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3992,6 +4124,33 @@
         <v>399</v>
       </c>
     </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Language.xlsx
+++ b/Excel/Language.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA325311-543E-4FA2-9E4E-77238FA53A7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED2B55E-A660-40FF-AFEF-81ADEE73F05D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39120" yWindow="3840" windowWidth="21600" windowHeight="18255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
     <sheet name="LanError" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="459">
   <si>
     <t>索引</t>
   </si>
@@ -1818,6 +1818,46 @@
   </si>
   <si>
     <t>&lt;color=#9F2600&gt;再下为你的无知感到悲哀~&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoundName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoundNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人数{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LotteryNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前抽奖参与人数:{0}/{1}({2}人已中奖)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}-&lt;color=#F3D48B&gt;{1}&lt;/color&gt;：获得{2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LotteryResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}({1}人)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第{0}轮抽奖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LotteryAward</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2227,15 +2267,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B195"/>
+  <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="B197" sqref="B197"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="B205" sqref="B204:B205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="1" max="1" width="49.75" customWidth="1"/>
     <col min="2" max="2" width="186.125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3797,6 +3837,46 @@
       </c>
       <c r="B195" s="8" t="s">
         <v>447</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A196" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A197" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A198" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A199" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A200" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
